--- a/data/steel/factories/DRI_simplified_factory.xlsx
+++ b/data/steel/factories/DRI_simplified_factory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="49">
   <si>
     <t>Inflow</t>
   </si>
@@ -109,9 +109,6 @@
     <t>ChainSheet</t>
   </si>
   <si>
-    <t>coke</t>
-  </si>
-  <si>
     <t>This Unit Only</t>
   </si>
   <si>
@@ -145,18 +142,6 @@
     <t>simple_pellets</t>
   </si>
   <si>
-    <t>simple_sinter</t>
-  </si>
-  <si>
-    <t>simple_BF</t>
-  </si>
-  <si>
-    <t>simple_BOF</t>
-  </si>
-  <si>
-    <t>simple_coke</t>
-  </si>
-  <si>
     <t>outflows</t>
   </si>
   <si>
@@ -166,24 +151,9 @@
     <t>fossil fuel</t>
   </si>
   <si>
-    <t>primary fuel</t>
-  </si>
-  <si>
-    <t>secondary fuel</t>
-  </si>
-  <si>
-    <t>secondary biofuel</t>
-  </si>
-  <si>
     <t>biofuel</t>
   </si>
   <si>
-    <t>simple_hydrogen</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
     <t>simple_DRI</t>
   </si>
   <si>
@@ -191,6 +161,18 @@
   </si>
   <si>
     <t>simple_EAF</t>
+  </si>
+  <si>
+    <t>simple_gas</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>simple_EOF</t>
+  </si>
+  <si>
+    <t>syngas</t>
   </si>
 </sst>
 </file>
@@ -586,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,7 +595,7 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -621,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -632,38 +614,38 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -674,51 +656,48 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -727,10 +706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -760,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -792,25 +771,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -818,77 +797,77 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -902,10 +881,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -914,64 +893,64 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -989,15 +968,15 @@
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1015,7 +994,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -1023,15 +1002,15 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1041,7 +1020,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1049,80 +1028,80 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
+      <c r="E13" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1130,51 +1109,51 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1182,82 +1161,30 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="1"/>
-      <c r="I20" s="6"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1295,32 +1222,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
